--- a/doc/RVI_Requirements_RevA.xlsx
+++ b/doc/RVI_Requirements_RevA.xlsx
@@ -2,18 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27217"/>
-  <workbookPr/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uwiger/Dropbox/RVI/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12080" yWindow="460" windowWidth="16700" windowHeight="12800"/>
+    <workbookView xWindow="4940" yWindow="460" windowWidth="21800" windowHeight="12800"/>
   </bookViews>
   <sheets>
     <sheet name="RVI" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">RVI!$A$1:$D$130</definedName>
+  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -127,9 +130,6 @@
     <t>RVI-SVC-1</t>
   </si>
   <si>
-    <t>Service Names conform to MQTT Topic Name Specification</t>
-  </si>
-  <si>
     <t>Service Names consist of at least 4 levels</t>
   </si>
   <si>
@@ -392,13 +392,16 @@
   </si>
   <si>
     <t>The connected RVI node (server) shall authorize itself</t>
+  </si>
+  <si>
+    <t>Service Names conform to MQTT Topic Name Specification with modifications described in [HLD]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -445,6 +448,10 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -813,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -868,10 +875,10 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -886,11 +893,11 @@
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -915,13 +922,13 @@
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>0</v>
@@ -935,7 +942,7 @@
     </row>
     <row r="17" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -944,13 +951,13 @@
     </row>
     <row r="18" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -959,10 +966,10 @@
         <v>RVI-GEN-2</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -971,10 +978,10 @@
         <v>RVI-GEN-3</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -983,10 +990,10 @@
         <v>RVI-GEN-4</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" s="7"/>
     </row>
@@ -996,10 +1003,10 @@
         <v>RVI-GEN-5</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="13" x14ac:dyDescent="0.15"/>
@@ -1017,10 +1024,10 @@
         <v>31</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1029,10 +1036,10 @@
         <v>RVI-SVC-2</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1041,10 +1048,10 @@
         <v>RVI-SVC-3</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1053,10 +1060,10 @@
         <v>RVI-SVC-4</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1065,10 +1072,10 @@
         <v>RVI-SVC-5</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1077,13 +1084,13 @@
         <v>RVI-SVC-6</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1092,10 +1099,10 @@
         <v>RVI-SVC-7</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1104,10 +1111,10 @@
         <v>RVI-SVC-8</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1116,10 +1123,10 @@
         <v>RVI-SVC-9</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1128,10 +1135,10 @@
         <v>RVI-SVC-10</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1140,10 +1147,10 @@
         <v>RVI-SVC-11</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1152,10 +1159,10 @@
         <v>RVI-SVC-12</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1164,10 +1171,10 @@
         <v>RVI-SVC-13</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1176,10 +1183,10 @@
         <v>RVI-SVC-14</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1188,10 +1195,10 @@
         <v>RVI-SVC-15</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1199,7 +1206,7 @@
     <row r="44" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="1:3" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="6" t="s">
@@ -1208,10 +1215,10 @@
     </row>
     <row r="46" spans="1:3" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>17</v>
@@ -1223,7 +1230,7 @@
         <v>RVI-DLINK-DISC-2</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>18</v>
@@ -1235,10 +1242,10 @@
         <v>RVI-DLINK-DISC-3</v>
       </c>
       <c r="B48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1247,10 +1254,10 @@
         <v>RVI-DLINK-DISC-4</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1267,7 +1274,7 @@
     </row>
     <row r="55" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="6" t="s">
@@ -1276,13 +1283,13 @@
     </row>
     <row r="56" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -1291,10 +1298,10 @@
         <v>RVI-TLS-2</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -1303,10 +1310,10 @@
         <v>RVI-TLS-3</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1315,7 +1322,7 @@
         <v>RVI-TLS-4</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>9</v>
@@ -1327,10 +1334,10 @@
         <v>RVI-TLS-5</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1339,7 +1346,7 @@
         <v>RVI-TLS-6</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>11</v>
@@ -1351,10 +1358,10 @@
         <v>RVI-TLS-7</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1363,10 +1370,10 @@
         <v>RVI-TLS-8</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1375,10 +1382,10 @@
         <v>RVI-TLS-9</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1393,7 +1400,7 @@
     </row>
     <row r="69" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
@@ -1402,10 +1409,10 @@
     </row>
     <row r="70" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>14</v>
@@ -1417,7 +1424,7 @@
         <v>RVI-AUTHEN-2</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>12</v>
@@ -1429,7 +1436,7 @@
         <v>RVI-AUTHEN-3</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>13</v>
@@ -1441,15 +1448,15 @@
         <v>RVI-AUTHEN-4</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6" t="s">
@@ -1458,13 +1465,13 @@
     </row>
     <row r="78" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1473,10 +1480,10 @@
         <v>RVI-AUTHOR-2</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1485,10 +1492,10 @@
         <v>RVI-AUTHOR-3</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1497,10 +1504,10 @@
         <v>RVI-AUTHOR-4</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1509,10 +1516,10 @@
         <v>RVI-AUTHOR-5</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1521,10 +1528,10 @@
         <v>RVI-AUTHOR-6</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1533,10 +1540,10 @@
         <v>RVI-AUTHOR-7</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1545,10 +1552,10 @@
         <v>RVI-AUTHOR-8</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1557,10 +1564,10 @@
         <v>RVI-AUTHOR-9</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1569,10 +1576,10 @@
         <v>RVI-AUTHOR-10</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1581,7 +1588,7 @@
         <v>RVI-AUTHOR-11</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>15</v>
@@ -1593,7 +1600,7 @@
     </row>
     <row r="92" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6" t="s">
@@ -1602,13 +1609,13 @@
     </row>
     <row r="93" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1617,10 +1624,10 @@
         <v>RVI-SVC_DISC-2</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C94" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1629,10 +1636,10 @@
         <v>RVI-SVC_DISC-3</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1641,10 +1648,10 @@
         <v>RVI-SVC_DISC-4</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1653,10 +1660,10 @@
         <v>RVI-SVC_DISC-5</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1665,10 +1672,10 @@
         <v>RVI-SVC_DISC-5</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C98" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1677,10 +1684,10 @@
         <v>RVI-SVC_DISC-6</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1689,10 +1696,10 @@
         <v>RVI-SVC_DISC-7</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C100" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1703,7 +1710,7 @@
     </row>
     <row r="104" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="6" t="s">
@@ -1712,13 +1719,13 @@
     </row>
     <row r="105" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C105" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1727,10 +1734,10 @@
         <v>RVI-SVC_INVOC-2</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C106" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1739,10 +1746,10 @@
         <v>RVI-SVC_INVOC-3</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1751,10 +1758,10 @@
         <v>RVI-SVC_INVOC-4</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1763,10 +1770,10 @@
         <v>RVI-SVC_INVOC-5</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C109" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1775,10 +1782,10 @@
         <v>RVI-SVC_INVOC-6</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C110" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1787,10 +1794,10 @@
         <v>RVI-SVC_INVOC-7</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1799,10 +1806,10 @@
         <v>RVI-SVC_INVOC-8</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C112" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1811,10 +1818,10 @@
         <v>RVI-SVC_INVOC-9</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1823,10 +1830,10 @@
         <v>RVI-SVC_INVOC-10</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1835,10 +1842,10 @@
         <v>RVI-SVC_INVOC-11</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1847,10 +1854,10 @@
         <v>RVI-SVC_INVOC-12</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117" spans="1:3" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1866,7 +1873,7 @@
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1875,7 +1882,7 @@
       </c>
       <c r="B121" s="7"/>
       <c r="C121" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1884,7 +1891,7 @@
         <v>STORE_FWD-2</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1910,10 +1917,10 @@
         <v>27</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1922,10 +1929,10 @@
         <v>PROV_SVC-2</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1934,10 +1941,10 @@
         <v>PROV_SVC-3</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1956,7 +1963,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="119" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>